--- a/data/trans_dic/P28B_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P28B_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha dormido peor respecto al último mes</t>
+          <t>Población que ha dormido peor respecto al último mes (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,17 +686,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>28,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -705,22 +706,22 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>54,16%</t>
+          <t>53,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -730,27 +731,27 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>47,32%</t>
+          <t>47,21%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,16%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>34,63%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,46; 49,37</t>
+          <t>33,95; 49,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,0; 36,37</t>
+          <t>21,17; 36,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,18; 25,17</t>
+          <t>11,65; 25,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,47; 22,99</t>
+          <t>10,23; 25,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,06; 37,2</t>
+          <t>19,13; 36,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,21; 61,81</t>
+          <t>45,82; 61,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,1; 40,95</t>
+          <t>24,06; 39,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,75; 35,64</t>
+          <t>22,11; 35,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,12; 29,32</t>
+          <t>16,05; 28,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,99; 54,27</t>
+          <t>33,78; 52,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41,65; 52,6</t>
+          <t>41,71; 52,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,0; 35,57</t>
+          <t>24,65; 35,46</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,77; 27,73</t>
+          <t>18,42; 28,01</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>14,56; 23,54</t>
+          <t>14,6; 24,56</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>28,73; 41,78</t>
+          <t>27,82; 41,01</t>
         </is>
       </c>
     </row>
@@ -850,27 +851,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>33,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -880,17 +881,17 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,48%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,53%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -905,22 +906,22 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,74%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>27,32%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,82; 43,84</t>
+          <t>25,87; 43,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,0; 36,71</t>
+          <t>15,79; 37,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,84; 24,12</t>
+          <t>12,73; 24,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,73; 24,21</t>
+          <t>9,58; 23,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,66; 33,62</t>
+          <t>14,52; 35,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,82; 55,11</t>
+          <t>41,75; 54,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,54; 43,11</t>
+          <t>28,54; 42,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,59; 33,09</t>
+          <t>21,84; 33,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,64; 33,28</t>
+          <t>21,37; 32,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,07; 39,68</t>
+          <t>25,64; 39,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,96; 46,11</t>
+          <t>35,19; 46,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,8; 35,9</t>
+          <t>24,4; 38,47</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>18,17; 26,78</t>
+          <t>18,24; 26,79</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,69; 26,23</t>
+          <t>16,55; 25,77</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>21,64; 34,07</t>
+          <t>22,32; 34,44</t>
         </is>
       </c>
     </row>
@@ -1025,17 +1026,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1050,17 +1051,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1075,22 +1076,22 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>24,2%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,32; 44,53</t>
+          <t>31,79; 45,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,2; 33,75</t>
+          <t>21,96; 36,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,83; 23,21</t>
+          <t>13,66; 22,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,9; 24,79</t>
+          <t>13,79; 25,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,18; 23,91</t>
+          <t>13,16; 24,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,46; 60,16</t>
+          <t>49,25; 60,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,36; 37,19</t>
+          <t>26,59; 38,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,35; 29,14</t>
+          <t>20,61; 29,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,46; 25,52</t>
+          <t>17,79; 26,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,18; 37,02</t>
+          <t>25,44; 36,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>42,4; 50,86</t>
+          <t>42,31; 51,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,67; 33,51</t>
+          <t>26,12; 35,06</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>18,17; 24,8</t>
+          <t>18,43; 24,87</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>16,83; 23,7</t>
+          <t>16,89; 24,16</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>20,84; 28,59</t>
+          <t>20,42; 28,33</t>
         </is>
       </c>
     </row>
@@ -1190,22 +1191,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>39,11%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1215,22 +1216,22 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,72%</t>
+          <t>48,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1240,27 +1241,27 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>43,95%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>27,1%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,4; 45,59</t>
+          <t>33,37; 45,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,38; 26,2</t>
+          <t>16,51; 26,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,03; 22,49</t>
+          <t>14,04; 23,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,13; 17,57</t>
+          <t>9,56; 18,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,51; 26,12</t>
+          <t>13,93; 26,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,42; 53,74</t>
+          <t>43,27; 53,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,3; 37,05</t>
+          <t>26,63; 37,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,63; 34,08</t>
+          <t>24,74; 33,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,14; 30,0</t>
+          <t>21,6; 29,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,72; 42,7</t>
+          <t>29,64; 42,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>40,33; 48,48</t>
+          <t>40,04; 48,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,9; 30,12</t>
+          <t>23,28; 30,51</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>20,79; 27,13</t>
+          <t>20,69; 27,35</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>16,04; 22,15</t>
+          <t>16,37; 22,29</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>22,93; 31,86</t>
+          <t>22,96; 31,69</t>
         </is>
       </c>
     </row>
@@ -1365,22 +1366,22 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1390,22 +1391,22 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1415,22 +1416,22 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>23,9%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,01; 36,58</t>
+          <t>23,89; 35,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,77; 27,25</t>
+          <t>13,73; 26,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,07; 25,63</t>
+          <t>14,64; 25,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,29; 15,86</t>
+          <t>8,13; 16,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,3; 27,43</t>
+          <t>15,23; 27,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,51; 47,4</t>
+          <t>34,28; 48,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,51; 32,15</t>
+          <t>20,03; 32,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,85; 30,24</t>
+          <t>19,49; 30,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,49; 18,02</t>
+          <t>9,84; 18,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,6; 33,24</t>
+          <t>21,36; 33,05</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>30,71; 39,99</t>
+          <t>30,91; 39,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,21; 27,16</t>
+          <t>18,8; 27,02</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>18,39; 26,22</t>
+          <t>17,86; 25,99</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,9; 15,51</t>
+          <t>9,95; 15,85</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>20,34; 28,76</t>
+          <t>19,94; 28,98</t>
         </is>
       </c>
     </row>
@@ -1535,42 +1536,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1580,27 +1581,27 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>12,97%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,91; 35,8</t>
+          <t>23,12; 36,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,2; 18,22</t>
+          <t>7,86; 17,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,5; 12,27</t>
+          <t>3,75; 12,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,45; 14,07</t>
+          <t>5,61; 14,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 19,6</t>
+          <t>7,33; 18,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,61; 36,19</t>
+          <t>24,61; 35,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,89; 22,35</t>
+          <t>12,57; 22,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,68; 22,44</t>
+          <t>12,9; 23,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,03; 20,7</t>
+          <t>11,79; 24,08</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,02; 21,36</t>
+          <t>7,94; 20,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,78; 34,07</t>
+          <t>25,12; 33,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,89; 18,6</t>
+          <t>11,41; 18,73</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>9,83; 16,57</t>
+          <t>10,14; 16,5</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,2; 16,42</t>
+          <t>10,34; 18,22</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>9,39; 18,38</t>
+          <t>9,18; 18,03</t>
         </is>
       </c>
     </row>
@@ -1700,22 +1701,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>35,4%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1725,22 +1726,22 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1750,22 +1751,22 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>40,56%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1783,77 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>32,72; 38,48</t>
+          <t>32,75; 38,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,11; 25,23</t>
+          <t>19,98; 25,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,25; 18,39</t>
+          <t>14,37; 18,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,86; 16,37</t>
+          <t>11,88; 16,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,04; 22,9</t>
+          <t>16,98; 23,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,83; 48,16</t>
+          <t>43,28; 48,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,87; 30,8</t>
+          <t>26,16; 31,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,17; 27,35</t>
+          <t>23,02; 27,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,69; 22,88</t>
+          <t>18,77; 23,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,26; 31,95</t>
+          <t>26,04; 31,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>38,69; 42,46</t>
+          <t>38,8; 42,68</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,41; 27,36</t>
+          <t>23,99; 27,69</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>19,49; 22,53</t>
+          <t>19,36; 22,44</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>15,9; 18,98</t>
+          <t>16,04; 19,3</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>22,55; 26,56</t>
+          <t>22,25; 26,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1873,4 +1881,1969 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha dormido peor respecto al último mes (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>211208</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>142318</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>91887</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>82166</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11419</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>249448</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>146646</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>146465</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>112381</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15849</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>460656</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>288964</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>238353</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>194548</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>27268</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>174178; 254816</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>106273; 182513</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>61084; 134334</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>52209; 128214</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7973; 15243</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>212066; 284950</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>112079; 182672</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>113861; 183329</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>82488; 147722</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12517; 19374</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>407001; 512112</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>238541; 343207</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>191398; 291082</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>149492; 251480</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>21903; 32287</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>189966</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>135590</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>100522</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>88761</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11235</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>247278</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>183404</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>140755</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>136887</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15171</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>437244</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>318994</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>241278</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>225648</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>26407</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>145775; 247216</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>86242; 206041</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>71981; 136022</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>56955; 139572</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7179; 17391</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>216610; 285112</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>147351; 221915</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>110923; 169904</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>109226; 166844</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12102; 18756</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>380889; 499029</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>259254; 408724</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>195841; 287566</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>182905; 284865</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>21575; 33290</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>257642</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>194069</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>123149</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>124030</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10884</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>381448</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>229817</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>178892</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>155314</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16624</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>639089</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>423885</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>302041</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>279344</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>27508</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>214842; 305565</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>150729; 248573</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>92989; 155813</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>93814; 172820</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7889; 14385</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>341932; 420015</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>189434; 271265</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>148040; 211596</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>126326; 185768</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13667; 19730</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>579741; 700340</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>365357; 490432</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>257854; 347927</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>234802; 335842</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>23211; 32194</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>248861</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>138256</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>118089</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>81377</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11144</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>340824</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>218825</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>196910</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>167044</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18800</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>589685</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>357082</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>314999</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>248421</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>29944</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>213066; 290591</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>106434; 172491</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>90668; 149418</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>60538; 114128</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8117; 15542</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>304268; 379437</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>182567; 256685</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>166101; 227419</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>142218; 195758</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>15476; 22098</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>537286; 647846</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>309730; 405889</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>272566; 360240</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>211440; 287923</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>25364; 35007</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>153946</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>93278</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>98011</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>57898</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9152</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>205327</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>130534</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>123284</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>70283</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>13084</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>359274</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>223811</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>221294</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>128180</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>22236</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>122314; 182916</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>66791; 129221</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>73788; 129613</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>40121; 79660</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6776; 12331</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>172209; 241542</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>101965; 163458</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>97304; 149878</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>50697; 97272</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>10367; 16043</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>313528; 404712</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>187185; 268993</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>179196; 260677</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>100329; 159879</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>18554; 26962</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>159462</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>64243</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>34371</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>49997</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5708</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>219148</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>121819</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>120538</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>113619</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>8632</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>378610</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>186062</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>154909</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>163616</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>14340</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>126451; 197098</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>42523; 94550</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>19616; 63625</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>29726; 78506</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3434; 8690</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>179955; 262713</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>89834; 164182</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>88594; 158366</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>81692; 166789</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>5057; 12867</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>320989; 433088</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>143308; 235162</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>122632; 199571</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>126386; 222654</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>10148; 19931</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>474.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>721.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>423.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1195.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>630.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>653.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>538.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>511.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1221084</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>767755</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>566030</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>484229</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>59542</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1643474</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1031045</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>906845</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>755529</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>88161</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2864558</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1798800</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1472874</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1239758</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>147703</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1129780; 1328646</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>680618; 879630</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>494829; 643881</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>408852; 564698</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>51050; 69294</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1563556; 1736768</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>942941; 1125662</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>828255; 986275</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>676047; 835283</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>78765; 96640</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2740127; 3014337</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1682065; 1940950</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1363295; 1580140</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1129480; 1358946</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>134195; 159389</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>